--- a/2 semester/LogicBase/WorkSpace/Lab8/calc.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab8/calc.xlsx
@@ -504,11 +504,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,27 +525,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -549,14 +536,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -853,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -865,54 +865,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="38"/>
-      <c r="AP1" s="38"/>
-      <c r="AQ1" s="38"/>
-      <c r="AR1" s="38"/>
-      <c r="AS1" s="38"/>
-      <c r="AT1" s="38"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="49"/>
+      <c r="AQ1" s="49"/>
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="49"/>
     </row>
     <row r="3" spans="1:47">
       <c r="A3" s="37" t="s">
@@ -972,55 +972,55 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="J4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="34" t="s">
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="39"/>
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="39"/>
     </row>
     <row r="5" spans="1:47">
       <c r="A5" t="s">
@@ -1032,12 +1032,12 @@
       <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
       <c r="J5" s="22">
         <v>0</v>
       </c>
@@ -1160,12 +1160,12 @@
       <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
       <c r="I6" t="s">
         <v>40</v>
       </c>
@@ -1291,12 +1291,12 @@
       <c r="C7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
       <c r="I7" t="s">
         <v>40</v>
       </c>
@@ -1413,15 +1413,15 @@
       </c>
     </row>
     <row r="8" spans="1:47">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="I8" t="s">
         <v>40</v>
       </c>
@@ -1657,16 +1657,16 @@
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="41" t="s">
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="33"/>
+      <c r="G10" s="35"/>
       <c r="I10" t="s">
         <v>40</v>
       </c>
@@ -1786,14 +1786,14 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="33"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="35"/>
       <c r="I11" t="s">
         <v>40</v>
       </c>
@@ -2029,16 +2029,16 @@
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="40" t="s">
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="33"/>
+      <c r="G13" s="35"/>
       <c r="I13" t="s">
         <v>40</v>
       </c>
@@ -2158,14 +2158,14 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="35"/>
       <c r="J14" s="23">
         <v>1</v>
       </c>
@@ -2282,14 +2282,14 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="33"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="35"/>
       <c r="I15" t="s">
         <v>40</v>
       </c>
@@ -2525,16 +2525,16 @@
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="40" t="s">
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="33"/>
+      <c r="G17" s="35"/>
       <c r="I17" t="s">
         <v>40</v>
       </c>
@@ -2654,14 +2654,14 @@
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="33"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="35"/>
       <c r="J18" s="23">
         <v>1</v>
       </c>
@@ -2778,14 +2778,14 @@
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="33"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="35"/>
       <c r="I19" t="s">
         <v>40</v>
       </c>
@@ -3018,16 +3018,16 @@
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="41" t="s">
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="33"/>
+      <c r="G21" s="35"/>
       <c r="J21" s="27">
         <v>1</v>
       </c>
@@ -3136,83 +3136,83 @@
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="33"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="35"/>
     </row>
     <row r="24" spans="1:46">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="40" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="33"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:46">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="33"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="1:46">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="33"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="28" spans="1:46">
       <c r="A28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="40" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="33"/>
+      <c r="G28" s="35"/>
     </row>
     <row r="29" spans="1:46">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="33"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="1:46">
       <c r="A30" s="2"/>
@@ -3224,12 +3224,12 @@
       <c r="G30" s="6"/>
     </row>
     <row r="32" spans="1:46">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="6" t="s">
         <v>19</v>
       </c>
@@ -3241,12 +3241,12 @@
       <c r="A33" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="7" t="s">
         <v>43</v>
       </c>
@@ -3311,55 +3311,55 @@
       <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
       <c r="J37" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K37" s="34" t="s">
+      <c r="K37" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="34" t="s">
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="39"/>
+      <c r="R37" s="39"/>
+      <c r="S37" s="39"/>
+      <c r="T37" s="39"/>
+      <c r="U37" s="39"/>
+      <c r="V37" s="39"/>
+      <c r="W37" s="39"/>
+      <c r="X37" s="39"/>
+      <c r="Y37" s="39"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="35"/>
-      <c r="AF37" s="35"/>
-      <c r="AG37" s="35"/>
-      <c r="AH37" s="35"/>
-      <c r="AI37" s="35"/>
-      <c r="AJ37" s="35"/>
-      <c r="AK37" s="35"/>
-      <c r="AL37" s="35"/>
-      <c r="AM37" s="35"/>
-      <c r="AN37" s="35"/>
-      <c r="AO37" s="35"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="34"/>
-      <c r="AR37" s="35"/>
-      <c r="AS37" s="35"/>
-      <c r="AT37" s="35"/>
+      <c r="AB37" s="39"/>
+      <c r="AC37" s="39"/>
+      <c r="AD37" s="39"/>
+      <c r="AE37" s="39"/>
+      <c r="AF37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AH37" s="39"/>
+      <c r="AI37" s="39"/>
+      <c r="AJ37" s="39"/>
+      <c r="AK37" s="39"/>
+      <c r="AL37" s="39"/>
+      <c r="AM37" s="39"/>
+      <c r="AN37" s="39"/>
+      <c r="AO37" s="39"/>
+      <c r="AP37" s="40"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="39"/>
+      <c r="AS37" s="39"/>
+      <c r="AT37" s="39"/>
     </row>
     <row r="38" spans="1:46">
       <c r="A38" t="s">
@@ -3371,12 +3371,12 @@
       <c r="C38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
       <c r="J38" s="22">
         <v>0</v>
       </c>
@@ -3428,7 +3428,7 @@
       <c r="Z38" s="24">
         <v>0</v>
       </c>
-      <c r="AA38" s="49">
+      <c r="AA38" s="32">
         <v>0</v>
       </c>
       <c r="AB38" s="12">
@@ -3499,12 +3499,12 @@
       <c r="C39" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
       <c r="J39" s="23">
         <v>0</v>
       </c>
@@ -3627,12 +3627,12 @@
       <c r="C40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
       <c r="J40" s="23">
         <v>0</v>
       </c>
@@ -3746,15 +3746,15 @@
       </c>
     </row>
     <row r="41" spans="1:46">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
       <c r="J41" s="23">
         <v>0</v>
       </c>
@@ -3987,16 +3987,16 @@
       <c r="A43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="41" t="s">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="48"/>
+      <c r="G43" s="47"/>
       <c r="J43" s="23">
         <v>0</v>
       </c>
@@ -4113,14 +4113,14 @@
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="48"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="47"/>
       <c r="I44" t="s">
         <v>40</v>
       </c>
@@ -4353,16 +4353,16 @@
       <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="40" t="s">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="45"/>
       <c r="J46" s="23">
         <v>0</v>
       </c>
@@ -4479,14 +4479,14 @@
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="47"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="45"/>
       <c r="I47" t="s">
         <v>40</v>
       </c>
@@ -4606,14 +4606,14 @@
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="47"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="45"/>
       <c r="I48" t="s">
         <v>40</v>
       </c>
@@ -4846,16 +4846,16 @@
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="40" t="s">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="45"/>
       <c r="J50" s="23">
         <v>0</v>
       </c>
@@ -4972,14 +4972,14 @@
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="47"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="45"/>
       <c r="J51" s="23">
         <v>1</v>
       </c>
@@ -5096,14 +5096,14 @@
       <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="44" t="s">
+      <c r="B52" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="45"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="47"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="45"/>
       <c r="I52" t="s">
         <v>40</v>
       </c>
@@ -5336,16 +5336,16 @@
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="45"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="41" t="s">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G54" s="48"/>
+      <c r="G54" s="47"/>
       <c r="J54" s="27">
         <v>0</v>
       </c>
@@ -5454,14 +5454,14 @@
       <c r="A55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="48"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
       <c r="K55">
         <v>1</v>
       </c>
@@ -5558,7 +5558,7 @@
       <c r="AP55">
         <v>0</v>
       </c>
-      <c r="AU55" s="50">
+      <c r="AU55" s="33">
         <v>-9000000</v>
       </c>
     </row>
@@ -5570,70 +5570,70 @@
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="40" t="s">
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="47"/>
+      <c r="G57" s="45"/>
     </row>
     <row r="58" spans="1:47">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="44" t="s">
+      <c r="B58" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="C58" s="45"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="47"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="45"/>
     </row>
     <row r="59" spans="1:47">
       <c r="A59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="47"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="45"/>
     </row>
     <row r="61" spans="1:47">
       <c r="A61" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="40" t="s">
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="G61" s="47"/>
+      <c r="G61" s="45"/>
     </row>
     <row r="62" spans="1:47">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="44" t="s">
+      <c r="B62" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="47"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="45"/>
     </row>
     <row r="63" spans="1:47">
       <c r="A63" s="2"/>
@@ -5648,35 +5648,35 @@
       <c r="A64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="44" t="s">
+      <c r="B64" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C64" s="45"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="47"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="45"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C65" s="45"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="47"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="45"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="6" t="s">
         <v>19</v>
       </c>
@@ -5688,32 +5688,32 @@
       <c r="A68" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="10"/>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="42"/>
-      <c r="E69" s="42"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="10"/>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
       <c r="F70" s="7" t="s">
         <v>58</v>
       </c>
@@ -5723,11 +5723,48 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="K4:Z4"/>
+    <mergeCell ref="AA4:AP4"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="J3:AT3"/>
+    <mergeCell ref="A1:AT1"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:G26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="F54:G55"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="F43:G44"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="F46:G48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
     <mergeCell ref="J36:AT36"/>
     <mergeCell ref="K37:Z37"/>
     <mergeCell ref="AA37:AP37"/>
@@ -5744,57 +5781,20 @@
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="F50:G52"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="B52:E52"/>
     <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:G55"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A41:G41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="F43:G44"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="F46:G48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="D37:G37"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="J3:AT3"/>
-    <mergeCell ref="A1:AT1"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:G26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="K4:Z4"/>
-    <mergeCell ref="AA4:AP4"/>
-    <mergeCell ref="AQ4:AT4"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
